--- a/processed_data/data_gazepath/data_koku-hamburg_12-15mos.xlsx
+++ b/processed_data/data_gazepath/data_koku-hamburg_12-15mos.xlsx
@@ -790,11 +790,6 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
@@ -830,11 +825,6 @@
       <c r="E11">
         <v>4</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="J11">
         <v>0</v>
       </c>
@@ -864,11 +854,6 @@
       <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -935,11 +920,6 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H14">
         <v>0</v>
       </c>
@@ -1362,11 +1342,6 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1390,11 +1365,6 @@
       <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1504,11 +1474,6 @@
       <c r="E28">
         <v>5</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H28">
         <v>0</v>
       </c>
@@ -1544,11 +1509,6 @@
       <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2475,11 +2435,6 @@
       <c r="E51">
         <v>4</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="J51">
         <v>1291.666666666667</v>
       </c>
@@ -2552,11 +2507,6 @@
       <c r="E53">
         <v>6</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H53">
         <v>0</v>
       </c>
@@ -2893,11 +2843,6 @@
       <c r="E61">
         <v>2</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H61">
         <v>0</v>
       </c>
@@ -3105,11 +3050,6 @@
       <c r="E66">
         <v>1</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3133,11 +3073,6 @@
       <c r="E67">
         <v>2</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3161,11 +3096,6 @@
       <c r="E68">
         <v>3</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3275,11 +3205,6 @@
       <c r="E71">
         <v>6</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="J71">
         <v>0</v>
       </c>
@@ -3309,11 +3234,6 @@
       <c r="E72">
         <v>1</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3337,11 +3257,6 @@
       <c r="E73">
         <v>2</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3365,11 +3280,6 @@
       <c r="E74">
         <v>3</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3393,11 +3303,6 @@
       <c r="E75">
         <v>4</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3421,11 +3326,6 @@
       <c r="E76">
         <v>5</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3448,11 +3348,6 @@
       </c>
       <c r="E77">
         <v>6</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
       </c>
       <c r="H77">
         <v>0</v>
